--- a/Agile/Niveau 3/Backlog.xlsx
+++ b/Agile/Niveau 3/Backlog.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="20490" windowHeight="7605" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="1200" windowWidth="20490" windowHeight="7605" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="23">
   <si>
     <t>Product Backlog</t>
   </si>
@@ -45,9 +45,6 @@
     <t>Nouvel effort estimé (ce qu'il reste à faire sur le sprint)</t>
   </si>
   <si>
-    <t>En temps qu'utilisateur et qu'administrateur je peux me déconnecter</t>
-  </si>
-  <si>
     <t>En temps qu'utilisateur (service du personnel) je peux ajouter ou modifier des utilisateurs.</t>
   </si>
   <si>
@@ -91,6 +88,12 @@
   </si>
   <si>
     <t>Dylan</t>
+  </si>
+  <si>
+    <t>Créer l'interface d'inscription d'un passager (UI)</t>
+  </si>
+  <si>
+    <t>En temps qu'utilisateur je peux me déconnecter</t>
   </si>
 </sst>
 </file>
@@ -187,12 +190,6 @@
   </cellStyleXfs>
   <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -206,27 +203,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -521,236 +524,236 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
     </row>
     <row r="4" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
     </row>
     <row r="5" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="3">
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="1">
         <v>1</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="1">
         <v>2</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I5" s="1">
         <v>3</v>
       </c>
-      <c r="J5" s="3">
+      <c r="J5" s="1">
         <v>4</v>
       </c>
-      <c r="K5" s="3">
+      <c r="K5" s="1">
         <v>5</v>
       </c>
-      <c r="L5" s="3">
+      <c r="L5" s="1">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="3:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="C6" s="13">
+      <c r="C6" s="9">
         <v>1</v>
       </c>
-      <c r="D6" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="14">
+      <c r="D6" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="10">
         <v>1.5</v>
       </c>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-    </row>
-    <row r="7" spans="3:12" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="13">
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+    </row>
+    <row r="7" spans="3:12" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="9">
+        <v>5</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+    </row>
+    <row r="8" spans="3:12" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C8" s="9">
+        <v>3</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+    </row>
+    <row r="9" spans="3:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="C9" s="9">
+        <v>4</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+    </row>
+    <row r="10" spans="3:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="C10" s="9">
+        <v>6</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="11">
+        <v>1.5</v>
+      </c>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+    </row>
+    <row r="11" spans="3:12" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C11" s="9">
         <v>2</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D11" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+    </row>
+    <row r="12" spans="3:12" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="C12" s="9">
+        <v>7</v>
+      </c>
+      <c r="D12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="6">
+      <c r="E12" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="4">
         <v>1.5</v>
       </c>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-    </row>
-    <row r="8" spans="3:12" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="13">
-        <v>3</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="6">
-        <v>1.5</v>
-      </c>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-    </row>
-    <row r="9" spans="3:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="C9" s="13">
-        <v>4</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="6">
-        <v>1.5</v>
-      </c>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-    </row>
-    <row r="10" spans="3:12" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="13">
-        <v>5</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="6">
-        <v>1.5</v>
-      </c>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-    </row>
-    <row r="11" spans="3:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="C11" s="13">
-        <v>6</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" s="15">
-        <v>1.5</v>
-      </c>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="15"/>
-    </row>
-    <row r="12" spans="3:12" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="C12" s="13">
-        <v>7</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F12" s="6">
-        <v>1.5</v>
-      </c>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-    </row>
-    <row r="13" spans="3:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-    </row>
-    <row r="14" spans="3:12" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="3:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D15" s="9"/>
-    </row>
-    <row r="16" spans="3:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D16" s="9"/>
-    </row>
-    <row r="17" spans="3:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D17" s="9"/>
-    </row>
-    <row r="18" spans="3:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D18" s="9"/>
-    </row>
-    <row r="19" spans="3:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E19" s="9"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+    </row>
+    <row r="13" spans="3:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+    </row>
+    <row r="14" spans="3:12" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="3:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D15" s="7"/>
+    </row>
+    <row r="16" spans="3:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D16" s="7"/>
+    </row>
+    <row r="17" spans="3:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D17" s="7"/>
+    </row>
+    <row r="18" spans="3:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D18" s="7"/>
+    </row>
+    <row r="19" spans="3:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E19" s="7"/>
     </row>
     <row r="20" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -770,7 +773,7 @@
   <dimension ref="B2:L13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -781,237 +784,237 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="1">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1">
+        <v>2</v>
+      </c>
+      <c r="I3" s="1">
+        <v>3</v>
+      </c>
+      <c r="J3" s="1">
+        <v>4</v>
+      </c>
+      <c r="K3" s="1">
+        <v>5</v>
+      </c>
+      <c r="L3" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="16">
+        <v>1</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-    </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="3">
-        <v>1</v>
-      </c>
-      <c r="H3" s="3">
+      <c r="F4" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B5" s="16"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B6" s="16"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B7" s="16"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B8" s="16"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B9" s="16">
         <v>2</v>
       </c>
-      <c r="I3" s="3">
-        <v>3</v>
-      </c>
-      <c r="J3" s="3">
-        <v>4</v>
-      </c>
-      <c r="K3" s="3">
-        <v>5</v>
-      </c>
-      <c r="L3" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="10">
-        <v>1</v>
-      </c>
-      <c r="C4" s="12" t="s">
+      <c r="C9" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B10" s="16"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B11" s="16"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B12" s="16"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="4">
-        <v>0.3</v>
-      </c>
-      <c r="G4" s="4">
-        <v>0</v>
-      </c>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="10"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B6" s="10"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="10"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="4" t="s">
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B13" s="16"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B8" s="10"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B9" s="10">
-        <v>2</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" s="4">
-        <v>0.3</v>
-      </c>
-      <c r="G9" s="4">
-        <v>0</v>
-      </c>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B10" s="10"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B11" s="10"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B12" s="10"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B13" s="10"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:L2"/>
+    <mergeCell ref="C4:C8"/>
+    <mergeCell ref="B4:B8"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="B9:B13"/>
     <mergeCell ref="C9:C13"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:D3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:L2"/>
-    <mergeCell ref="C4:C8"/>
-    <mergeCell ref="B4:B8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Agile/Niveau 3/Backlog.xlsx
+++ b/Agile/Niveau 3/Backlog.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1200" windowWidth="20490" windowHeight="7605" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2400" windowWidth="20490" windowHeight="7605" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="24">
   <si>
     <t>Product Backlog</t>
   </si>
@@ -75,9 +75,6 @@
     <t>En temps qu'utilisateur du système je peux me connecter</t>
   </si>
   <si>
-    <t>Confirmer la création du compte</t>
-  </si>
-  <si>
     <t>Ecrire les tests</t>
   </si>
   <si>
@@ -90,10 +87,16 @@
     <t>Dylan</t>
   </si>
   <si>
-    <t>Créer l'interface d'inscription d'un passager (UI)</t>
-  </si>
-  <si>
     <t>En temps qu'utilisateur je peux me déconnecter</t>
+  </si>
+  <si>
+    <t>Créer l'interface de déconnexion (UI)</t>
+  </si>
+  <si>
+    <t>Développer le code relatif à la connexion</t>
+  </si>
+  <si>
+    <t>Développer le code relatif à la déconnexion</t>
   </si>
 </sst>
 </file>
@@ -135,7 +138,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -184,11 +187,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -213,23 +227,36 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -513,8 +540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:L20"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -524,46 +551,46 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
     </row>
     <row r="4" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="G4" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
     </row>
     <row r="5" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
       <c r="G5" s="1">
         <v>1</v>
       </c>
@@ -608,7 +635,7 @@
         <v>5</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>11</v>
@@ -634,7 +661,7 @@
         <v>11</v>
       </c>
       <c r="F8" s="4">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
@@ -654,7 +681,7 @@
         <v>11</v>
       </c>
       <c r="F9" s="4">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
@@ -674,7 +701,7 @@
         <v>11</v>
       </c>
       <c r="F10" s="11">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
@@ -770,10 +797,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:L13"/>
+  <dimension ref="B2:L14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -784,36 +811,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="14" t="s">
+      <c r="D2" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="E2" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="13"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="14"/>
       <c r="G3" s="1">
         <v>1</v>
       </c>
@@ -834,17 +861,17 @@
       </c>
     </row>
     <row r="4" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="16">
+      <c r="B4" s="18">
         <v>1</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="15" t="s">
         <v>15</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F4" s="2">
         <v>0.3</v>
@@ -859,13 +886,15 @@
       <c r="L4" s="2"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="16"/>
-      <c r="C5" s="17"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="16"/>
       <c r="D5" s="2" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
+      <c r="F5" s="2">
+        <v>0.3</v>
+      </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
@@ -874,13 +903,15 @@
       <c r="L5" s="2"/>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B6" s="16"/>
-      <c r="C6" s="17"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="16"/>
       <c r="D6" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
+      <c r="F6" s="2">
+        <v>0.25</v>
+      </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -889,13 +920,15 @@
       <c r="L6" s="2"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="16"/>
-      <c r="C7" s="17"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="16"/>
       <c r="D7" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
+      <c r="F7" s="2">
+        <v>0.15</v>
+      </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
@@ -904,13 +937,15 @@
       <c r="L7" s="2"/>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B8" s="16"/>
-      <c r="C8" s="17"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="16"/>
       <c r="D8" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
+      <c r="F8" s="2">
+        <v>0.5</v>
+      </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
@@ -918,18 +953,18 @@
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B9" s="16">
+    <row r="9" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="18">
         <v>2</v>
       </c>
-      <c r="C9" s="17" t="s">
-        <v>22</v>
+      <c r="C9" s="15" t="s">
+        <v>20</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F9" s="2">
         <v>0.3</v>
@@ -943,14 +978,16 @@
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B10" s="16"/>
-      <c r="C10" s="17"/>
+    <row r="10" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="19"/>
+      <c r="C10" s="16"/>
       <c r="D10" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
+      <c r="F10" s="2">
+        <v>0.3</v>
+      </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
@@ -959,13 +996,15 @@
       <c r="L10" s="2"/>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B11" s="16"/>
-      <c r="C11" s="17"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="16"/>
       <c r="D11" s="2" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
+      <c r="F11" s="2">
+        <v>0.3</v>
+      </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
@@ -974,13 +1013,15 @@
       <c r="L11" s="2"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B12" s="16"/>
-      <c r="C12" s="17"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="16"/>
       <c r="D12" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
+      <c r="F12" s="2">
+        <v>0.15</v>
+      </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
@@ -989,13 +1030,15 @@
       <c r="L12" s="2"/>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B13" s="16"/>
+      <c r="B13" s="20"/>
       <c r="C13" s="17"/>
       <c r="D13" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
+      <c r="F13" s="2">
+        <v>0.5</v>
+      </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
@@ -1003,18 +1046,21 @@
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
     </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B14" s="12"/>
+    </row>
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="G2:L2"/>
-    <mergeCell ref="C4:C8"/>
-    <mergeCell ref="B4:B8"/>
     <mergeCell ref="E2:E3"/>
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="C9:C13"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:D3"/>
+    <mergeCell ref="C9:C13"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="C4:C8"/>
+    <mergeCell ref="B4:B8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
